--- a/Método de identificación/UNIÓN DE CARACTERISTICAS/entrenamiento_test_RF.xlsx
+++ b/Método de identificación/UNIÓN DE CARACTERISTICAS/entrenamiento_test_RF.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Tipo cla</t>
   </si>
@@ -43,22 +43,18 @@
     <t>AUC</t>
   </si>
   <si>
-    <t>Random forest__Estima:_30</t>
-  </si>
-  <si>
     <t>prueba</t>
   </si>
   <si>
-    <t>[[152  35]
- [ 49 135]]</t>
-  </si>
-  <si>
-    <t>[[  67  229]
- [  65 1045]]</t>
-  </si>
-  <si>
-    <t>[[ 67 229]
- [ 18 278]]</t>
+    <t>pruebabalanceo</t>
+  </si>
+  <si>
+    <t>[[ 58 238]
+ [131 979]]</t>
+  </si>
+  <si>
+    <t>[[ 58 238]
+ [ 35 261]]</t>
   </si>
 </sst>
 </file>
@@ -416,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,28 +455,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.7735849056603774</v>
+        <v>0.7375533428165008</v>
       </c>
       <c r="D2">
-        <v>0.7627118644067797</v>
+        <v>0.841426729694886</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2">
-        <v>0.7735849056603774</v>
+        <v>0.7375533428165008</v>
       </c>
       <c r="G2">
-        <v>0.7941176470588235</v>
+        <v>0.8044371405094495</v>
       </c>
       <c r="H2">
-        <v>0.7336956521739131</v>
+        <v>0.881981981981982</v>
       </c>
       <c r="I2">
-        <v>0.8128342245989305</v>
+        <v>0.1959459459459459</v>
       </c>
       <c r="J2">
-        <v>0.7732649383864219</v>
+        <v>0.538963963963964</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -491,60 +487,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.7908961593172119</v>
+        <v>0.5388513513513513</v>
       </c>
       <c r="D3">
-        <v>0.8766778523489933</v>
+        <v>0.6566037735849056</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3">
-        <v>0.7908961593172119</v>
+        <v>0.5388513513513513</v>
       </c>
       <c r="G3">
-        <v>0.8202511773940345</v>
+        <v>0.5230460921843687</v>
       </c>
       <c r="H3">
-        <v>0.9414414414414415</v>
+        <v>0.8817567567567568</v>
       </c>
       <c r="I3">
-        <v>0.2263513513513513</v>
+        <v>0.1959459459459459</v>
       </c>
       <c r="J3">
-        <v>0.5838963963963963</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>0.5827702702702703</v>
-      </c>
-      <c r="D4">
-        <v>0.6924034869240349</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>0.5827702702702703</v>
-      </c>
-      <c r="G4">
-        <v>0.5483234714003945</v>
-      </c>
-      <c r="H4">
-        <v>0.9391891891891891</v>
-      </c>
-      <c r="I4">
-        <v>0.2263513513513513</v>
-      </c>
-      <c r="J4">
-        <v>0.5827702702702702</v>
+        <v>0.5388513513513513</v>
       </c>
     </row>
   </sheetData>
